--- a/my-app/regionseng/11/demography/death causes.xlsx
+++ b/my-app/regionseng/11/demography/death causes.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Mtskheta-Mtianeti" sheetId="2" r:id="rId1"/>
+    <sheet name="Tbilisi" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
+    <t>Demography</t>
+  </si>
+  <si>
     <t>Certain infectious and parasitic diseases</t>
   </si>
   <si>
@@ -70,12 +73,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Demography</t>
-  </si>
-  <si>
     <t>Both sexes</t>
   </si>
   <si>
+    <t>Number of Deaths by Causes of Death and Sex, Tbilisi</t>
+  </si>
+  <si>
     <t>Neoplasms</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>Females</t>
   </si>
   <si>
-    <t>Number of Deaths by Causes of Death and Sex, Mtskheta-Mtianeti</t>
-  </si>
-  <si>
     <t>(persons)</t>
   </si>
   <si>
+    <t>** In case of death caused by injury or other external factors (chapter XIX), the external cause of the injury must be indicated as the primary cause of death (chapter XX)</t>
+  </si>
+  <si>
     <t>Causes of death*</t>
   </si>
   <si>
     <t>Injury, poisoning and certain other consequences of external causes**</t>
-  </si>
-  <si>
-    <t>** In case of death caused by injury or other external factors (chapter XIX), the external cause of the injury must be indicated as the primary cause of death (chapter XX)</t>
   </si>
   <si>
     <t>* based on International Classification of Diseases, Tenth Revision (ICD-10)</t>
@@ -219,9 +219,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -264,9 +262,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -396,7 +392,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -406,8 +402,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -467,25 +464,53 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="15" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_2011" xfId="1"/>
+    <cellStyle name="Normal_Sheet1_1" xfId="9"/>
     <cellStyle name="style1360565008690" xfId="2"/>
     <cellStyle name="style1360565008924" xfId="3"/>
     <cellStyle name="style1360565009377" xfId="4"/>
@@ -800,19 +825,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" style="2" customWidth="1"/>
-    <col min="2" max="25" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" style="2" customWidth="1"/>
+    <col min="2" max="25" width="10.42578125" style="2" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,667 +850,667 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="A6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="34">
         <v>2014</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30">
         <v>2015</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="21">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30">
         <v>2016</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="21">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30">
         <v>2017</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="21">
+      <c r="L6" s="30"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="30">
         <v>2018</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="21">
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="30">
         <v>2019</v>
       </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="21">
+      <c r="R6" s="30"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="30">
         <v>2020</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="21">
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="30">
         <v>2021</v>
       </c>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="23"/>
-    </row>
-    <row r="7" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="31"/>
+    </row>
+    <row r="7" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="6" t="s">
+      <c r="R7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="U7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="V7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="6" t="s">
+      <c r="X7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="Y7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="11">
-        <v>1378</v>
+        <v>12403</v>
       </c>
       <c r="C8" s="12">
-        <v>731</v>
+        <v>6043</v>
       </c>
       <c r="D8" s="13">
-        <v>647</v>
+        <v>6360</v>
       </c>
       <c r="E8" s="11">
-        <v>1464</v>
+        <v>12377</v>
       </c>
       <c r="F8" s="12">
-        <v>796</v>
+        <v>6207</v>
       </c>
       <c r="G8" s="13">
-        <v>668</v>
+        <v>6170</v>
       </c>
       <c r="H8" s="11">
-        <v>1416</v>
+        <v>12720</v>
       </c>
       <c r="I8" s="12">
-        <v>780</v>
+        <v>6320</v>
       </c>
       <c r="J8" s="13">
-        <v>636</v>
-      </c>
-      <c r="K8" s="11">
-        <v>1370</v>
+        <v>6400</v>
+      </c>
+      <c r="K8" s="12">
+        <v>11976</v>
       </c>
       <c r="L8" s="12">
-        <v>744</v>
+        <v>5912</v>
       </c>
       <c r="M8" s="13">
-        <v>626</v>
-      </c>
-      <c r="N8" s="11">
-        <v>1329</v>
+        <v>6064</v>
+      </c>
+      <c r="N8" s="12">
+        <v>12122</v>
       </c>
       <c r="O8" s="12">
-        <v>716</v>
+        <v>5965</v>
       </c>
       <c r="P8" s="13">
-        <v>613</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>1311</v>
+        <v>6157</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>12549</v>
       </c>
       <c r="R8" s="12">
-        <v>709</v>
+        <v>6180</v>
       </c>
       <c r="S8" s="13">
-        <v>602</v>
-      </c>
-      <c r="T8" s="11">
-        <v>1409</v>
-      </c>
-      <c r="U8" s="12">
-        <v>771</v>
-      </c>
-      <c r="V8" s="13">
-        <v>638</v>
-      </c>
-      <c r="W8" s="11">
-        <v>1718</v>
-      </c>
-      <c r="X8" s="12">
-        <v>879</v>
-      </c>
-      <c r="Y8" s="13">
-        <v>839</v>
+        <v>6369</v>
+      </c>
+      <c r="T8" s="21">
+        <v>13878</v>
+      </c>
+      <c r="U8" s="22">
+        <v>6891</v>
+      </c>
+      <c r="V8" s="23">
+        <v>6987</v>
+      </c>
+      <c r="W8" s="21">
+        <v>17922</v>
+      </c>
+      <c r="X8" s="22">
+        <v>8590</v>
+      </c>
+      <c r="Y8" s="23">
+        <v>9332</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="14">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="C9" s="15">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D9" s="16">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E9" s="14">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="F9" s="15">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="G9" s="16">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="H9" s="14">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="I9" s="15">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="J9" s="16">
-        <v>4</v>
-      </c>
-      <c r="K9" s="14">
-        <v>15</v>
+        <v>101</v>
+      </c>
+      <c r="K9" s="15">
+        <v>306</v>
       </c>
       <c r="L9" s="15">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="M9" s="16">
-        <v>5</v>
-      </c>
-      <c r="N9" s="14">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="N9" s="15">
+        <v>207</v>
       </c>
       <c r="O9" s="15">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="P9" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>308</v>
       </c>
       <c r="R9" s="15">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="S9" s="16">
-        <v>3</v>
-      </c>
-      <c r="T9" s="14">
-        <v>11</v>
-      </c>
-      <c r="U9" s="15">
-        <v>8</v>
-      </c>
-      <c r="V9" s="16">
-        <v>3</v>
-      </c>
-      <c r="W9" s="14">
-        <v>13</v>
-      </c>
-      <c r="X9" s="15">
-        <v>9</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>4</v>
+        <v>92</v>
+      </c>
+      <c r="T9" s="24">
+        <v>304</v>
+      </c>
+      <c r="U9" s="25">
+        <v>198</v>
+      </c>
+      <c r="V9" s="26">
+        <v>106</v>
+      </c>
+      <c r="W9" s="24">
+        <v>261</v>
+      </c>
+      <c r="X9" s="25">
+        <v>165</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14">
-        <v>205</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="15">
-        <v>122</v>
+        <v>577</v>
       </c>
       <c r="D10" s="16">
-        <v>83</v>
+        <v>593</v>
       </c>
       <c r="E10" s="14">
-        <v>161</v>
+        <v>1620</v>
       </c>
       <c r="F10" s="15">
-        <v>90</v>
+        <v>832</v>
       </c>
       <c r="G10" s="16">
-        <v>71</v>
+        <v>788</v>
       </c>
       <c r="H10" s="14">
-        <v>175</v>
+        <v>1906</v>
       </c>
       <c r="I10" s="15">
-        <v>110</v>
+        <v>948</v>
       </c>
       <c r="J10" s="16">
-        <v>65</v>
-      </c>
-      <c r="K10" s="14">
-        <v>212</v>
+        <v>958</v>
+      </c>
+      <c r="K10" s="15">
+        <v>2039</v>
       </c>
       <c r="L10" s="15">
-        <v>124</v>
+        <v>1063</v>
       </c>
       <c r="M10" s="16">
-        <v>88</v>
-      </c>
-      <c r="N10" s="14">
-        <v>173</v>
+        <v>976</v>
+      </c>
+      <c r="N10" s="15">
+        <v>1964</v>
       </c>
       <c r="O10" s="15">
-        <v>98</v>
+        <v>970</v>
       </c>
       <c r="P10" s="16">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>199</v>
+        <v>994</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>2472</v>
       </c>
       <c r="R10" s="15">
-        <v>109</v>
+        <v>1277</v>
       </c>
       <c r="S10" s="16">
-        <v>90</v>
-      </c>
-      <c r="T10" s="14">
-        <v>219</v>
-      </c>
-      <c r="U10" s="15">
-        <v>129</v>
-      </c>
-      <c r="V10" s="16">
-        <v>90</v>
-      </c>
-      <c r="W10" s="14">
-        <v>193</v>
-      </c>
-      <c r="X10" s="15">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>93</v>
+        <v>1195</v>
+      </c>
+      <c r="T10" s="24">
+        <v>2375</v>
+      </c>
+      <c r="U10" s="25">
+        <v>1239</v>
+      </c>
+      <c r="V10" s="26">
+        <v>1136</v>
+      </c>
+      <c r="W10" s="24">
+        <v>2259</v>
+      </c>
+      <c r="X10" s="25">
+        <v>1180</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="14">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C11" s="15">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D11" s="16">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E11" s="14">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F11" s="15">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G11" s="16">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="H11" s="14">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I11" s="15">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="J11" s="16">
-        <v>10</v>
-      </c>
-      <c r="K11" s="14">
-        <v>13</v>
+        <v>67</v>
+      </c>
+      <c r="K11" s="15">
+        <v>198</v>
       </c>
       <c r="L11" s="15">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="M11" s="16">
-        <v>7</v>
-      </c>
-      <c r="N11" s="14">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="N11" s="15">
+        <v>154</v>
       </c>
       <c r="O11" s="15">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="P11" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>9</v>
+        <v>80</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>144</v>
       </c>
       <c r="R11" s="15">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="S11" s="16">
-        <v>4</v>
-      </c>
-      <c r="T11" s="14">
-        <v>10</v>
-      </c>
-      <c r="U11" s="15">
-        <v>6</v>
-      </c>
-      <c r="V11" s="16">
-        <v>4</v>
-      </c>
-      <c r="W11" s="14">
-        <v>7</v>
-      </c>
-      <c r="X11" s="15">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>1</v>
+        <v>76</v>
+      </c>
+      <c r="T11" s="24">
+        <v>110</v>
+      </c>
+      <c r="U11" s="25">
+        <v>51</v>
+      </c>
+      <c r="V11" s="26">
+        <v>59</v>
+      </c>
+      <c r="W11" s="24">
+        <v>112</v>
+      </c>
+      <c r="X11" s="25">
+        <v>44</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="14">
+        <v>217</v>
+      </c>
+      <c r="C12" s="15">
+        <v>101</v>
+      </c>
+      <c r="D12" s="16">
+        <v>116</v>
+      </c>
+      <c r="E12" s="14">
+        <v>215</v>
+      </c>
+      <c r="F12" s="15">
+        <v>73</v>
+      </c>
+      <c r="G12" s="16">
+        <v>142</v>
+      </c>
+      <c r="H12" s="14">
+        <v>101</v>
+      </c>
+      <c r="I12" s="15">
         <v>44</v>
       </c>
-      <c r="C12" s="15">
-        <v>25</v>
-      </c>
-      <c r="D12" s="16">
-        <v>19</v>
-      </c>
-      <c r="E12" s="14">
-        <v>28</v>
-      </c>
-      <c r="F12" s="15">
-        <v>13</v>
-      </c>
-      <c r="G12" s="16">
-        <v>15</v>
-      </c>
-      <c r="H12" s="14">
-        <v>19</v>
-      </c>
-      <c r="I12" s="15">
-        <v>10</v>
-      </c>
       <c r="J12" s="16">
-        <v>9</v>
-      </c>
-      <c r="K12" s="14">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="K12" s="15">
+        <v>146</v>
       </c>
       <c r="L12" s="15">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="M12" s="16">
-        <v>13</v>
-      </c>
-      <c r="N12" s="14">
-        <v>15</v>
+        <v>85</v>
+      </c>
+      <c r="N12" s="15">
+        <v>67</v>
       </c>
       <c r="O12" s="15">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="P12" s="16">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>158</v>
       </c>
       <c r="R12" s="15">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="S12" s="16">
-        <v>16</v>
-      </c>
-      <c r="T12" s="14">
-        <v>24</v>
-      </c>
-      <c r="U12" s="15">
-        <v>13</v>
-      </c>
-      <c r="V12" s="16">
-        <v>11</v>
-      </c>
-      <c r="W12" s="14">
-        <v>32</v>
-      </c>
-      <c r="X12" s="15">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="16">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="T12" s="24">
+        <v>161</v>
+      </c>
+      <c r="U12" s="25">
+        <v>66</v>
+      </c>
+      <c r="V12" s="26">
+        <v>95</v>
+      </c>
+      <c r="W12" s="24">
+        <v>255</v>
+      </c>
+      <c r="X12" s="25">
+        <v>114</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="14">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C13" s="15">
         <v>5</v>
       </c>
       <c r="D13" s="16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13" s="14">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F13" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H13" s="14">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I13" s="15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13" s="16">
-        <v>1</v>
-      </c>
-      <c r="K13" s="14">
+        <v>8</v>
+      </c>
+      <c r="K13" s="15">
+        <v>22</v>
+      </c>
+      <c r="L13" s="15">
+        <v>10</v>
+      </c>
+      <c r="M13" s="16">
+        <v>12</v>
+      </c>
+      <c r="N13" s="15">
+        <v>22</v>
+      </c>
+      <c r="O13" s="15">
         <v>4</v>
       </c>
-      <c r="L13" s="15">
-        <v>3</v>
-      </c>
-      <c r="M13" s="16">
-        <v>1</v>
-      </c>
-      <c r="N13" s="14">
-        <v>1</v>
-      </c>
-      <c r="O13" s="15">
-        <v>0</v>
-      </c>
       <c r="P13" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>45</v>
       </c>
       <c r="R13" s="15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S13" s="16">
-        <v>1</v>
-      </c>
-      <c r="T13" s="14">
-        <v>1</v>
-      </c>
-      <c r="U13" s="15">
-        <v>0</v>
-      </c>
-      <c r="V13" s="16">
-        <v>1</v>
-      </c>
-      <c r="W13" s="14">
-        <v>5</v>
-      </c>
-      <c r="X13" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="T13" s="24">
+        <v>51</v>
+      </c>
+      <c r="U13" s="25">
+        <v>12</v>
+      </c>
+      <c r="V13" s="26">
+        <v>39</v>
+      </c>
+      <c r="W13" s="24">
+        <v>106</v>
+      </c>
+      <c r="X13" s="25">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="14">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="C14" s="15">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D14" s="16">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F14" s="15">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="G14" s="16">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H14" s="14">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="I14" s="15">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J14" s="16">
-        <v>4</v>
-      </c>
-      <c r="K14" s="14">
-        <v>16</v>
+        <v>53</v>
+      </c>
+      <c r="K14" s="15">
+        <v>160</v>
       </c>
       <c r="L14" s="15">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="M14" s="16">
-        <v>6</v>
-      </c>
-      <c r="N14" s="14">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="N14" s="15">
+        <v>97</v>
       </c>
       <c r="O14" s="15">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="P14" s="16">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>11</v>
+        <v>49</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>186</v>
       </c>
       <c r="R14" s="15">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="S14" s="16">
-        <v>4</v>
-      </c>
-      <c r="T14" s="14">
-        <v>20</v>
-      </c>
-      <c r="U14" s="15">
-        <v>16</v>
-      </c>
-      <c r="V14" s="16">
-        <v>4</v>
-      </c>
-      <c r="W14" s="14">
-        <v>18</v>
-      </c>
-      <c r="X14" s="15">
-        <v>6</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="T14" s="24">
+        <v>143</v>
+      </c>
+      <c r="U14" s="25">
+        <v>63</v>
+      </c>
+      <c r="V14" s="26">
+        <v>80</v>
+      </c>
+      <c r="W14" s="24">
+        <v>210</v>
+      </c>
+      <c r="X14" s="25">
+        <v>102</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="14">
         <v>1</v>
@@ -1497,33 +1522,33 @@
         <v>1</v>
       </c>
       <c r="E15" s="14">
+        <v>3</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16">
         <v>1</v>
       </c>
-      <c r="F15" s="15">
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
         <v>1</v>
       </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
         <v>1</v>
       </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="14">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
+      <c r="N15" s="15">
         <v>0</v>
       </c>
       <c r="O15" s="15">
@@ -1532,7 +1557,7 @@
       <c r="P15" s="16">
         <v>0</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="15">
         <v>0</v>
       </c>
       <c r="R15" s="15">
@@ -1541,28 +1566,28 @@
       <c r="S15" s="16">
         <v>0</v>
       </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="15">
-        <v>0</v>
-      </c>
-      <c r="V15" s="16">
-        <v>0</v>
-      </c>
-      <c r="W15" s="14">
-        <v>0</v>
-      </c>
-      <c r="X15" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16">
+      <c r="T15" s="24">
+        <v>0</v>
+      </c>
+      <c r="U15" s="25">
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0</v>
+      </c>
+      <c r="W15" s="24">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
@@ -1574,24 +1599,24 @@
         <v>0</v>
       </c>
       <c r="E16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="16">
         <v>0</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="15">
         <v>0</v>
       </c>
       <c r="L16" s="15">
@@ -1600,7 +1625,7 @@
       <c r="M16" s="16">
         <v>0</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="15">
         <v>0</v>
       </c>
       <c r="O16" s="15">
@@ -1609,7 +1634,7 @@
       <c r="P16" s="16">
         <v>0</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="15">
         <v>0</v>
       </c>
       <c r="R16" s="15">
@@ -1618,870 +1643,870 @@
       <c r="S16" s="16">
         <v>0</v>
       </c>
-      <c r="T16" s="14">
-        <v>0</v>
-      </c>
-      <c r="U16" s="15">
-        <v>0</v>
-      </c>
-      <c r="V16" s="16">
-        <v>0</v>
-      </c>
-      <c r="W16" s="14">
-        <v>0</v>
-      </c>
-      <c r="X16" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="16">
+      <c r="T16" s="24">
+        <v>0</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <v>0</v>
+      </c>
+      <c r="W16" s="24">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="14">
-        <v>765</v>
+        <v>2787</v>
       </c>
       <c r="C17" s="15">
-        <v>352</v>
+        <v>1385</v>
       </c>
       <c r="D17" s="16">
-        <v>413</v>
+        <v>1402</v>
       </c>
       <c r="E17" s="14">
-        <v>672</v>
+        <v>3090</v>
       </c>
       <c r="F17" s="15">
-        <v>324</v>
+        <v>1479</v>
       </c>
       <c r="G17" s="16">
-        <v>348</v>
+        <v>1611</v>
       </c>
       <c r="H17" s="14">
-        <v>530</v>
+        <v>2597</v>
       </c>
       <c r="I17" s="15">
-        <v>265</v>
+        <v>1276</v>
       </c>
       <c r="J17" s="16">
-        <v>265</v>
-      </c>
-      <c r="K17" s="14">
-        <v>631</v>
+        <v>1321</v>
+      </c>
+      <c r="K17" s="15">
+        <v>2813</v>
       </c>
       <c r="L17" s="15">
-        <v>308</v>
+        <v>1341</v>
       </c>
       <c r="M17" s="16">
-        <v>323</v>
-      </c>
-      <c r="N17" s="14">
-        <v>793</v>
+        <v>1472</v>
+      </c>
+      <c r="N17" s="15">
+        <v>2971</v>
       </c>
       <c r="O17" s="15">
-        <v>387</v>
+        <v>1455</v>
       </c>
       <c r="P17" s="16">
-        <v>406</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>704</v>
+        <v>1516</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>3161</v>
       </c>
       <c r="R17" s="15">
-        <v>346</v>
+        <v>1533</v>
       </c>
       <c r="S17" s="16">
-        <v>358</v>
-      </c>
-      <c r="T17" s="14">
-        <v>763</v>
-      </c>
-      <c r="U17" s="15">
-        <v>374</v>
-      </c>
-      <c r="V17" s="16">
-        <v>389</v>
-      </c>
-      <c r="W17" s="14">
-        <v>801</v>
-      </c>
-      <c r="X17" s="15">
-        <v>389</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>412</v>
+        <v>1628</v>
+      </c>
+      <c r="T17" s="24">
+        <v>3069</v>
+      </c>
+      <c r="U17" s="25">
+        <v>1502</v>
+      </c>
+      <c r="V17" s="26">
+        <v>1567</v>
+      </c>
+      <c r="W17" s="24">
+        <v>2826</v>
+      </c>
+      <c r="X17" s="25">
+        <v>1379</v>
+      </c>
+      <c r="Y17" s="26">
+        <v>1447</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="14">
-        <v>49</v>
+        <v>354</v>
       </c>
       <c r="C18" s="15">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="D18" s="16">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="E18" s="14">
-        <v>101</v>
+        <v>601</v>
       </c>
       <c r="F18" s="15">
-        <v>57</v>
+        <v>297</v>
       </c>
       <c r="G18" s="16">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="H18" s="14">
-        <v>90</v>
+        <v>812</v>
       </c>
       <c r="I18" s="15">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="J18" s="16">
-        <v>42</v>
-      </c>
-      <c r="K18" s="14">
-        <v>94</v>
+        <v>412</v>
+      </c>
+      <c r="K18" s="15">
+        <v>637</v>
       </c>
       <c r="L18" s="15">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="M18" s="16">
-        <v>37</v>
-      </c>
-      <c r="N18" s="14">
-        <v>98</v>
+        <v>334</v>
+      </c>
+      <c r="N18" s="15">
+        <v>1101</v>
       </c>
       <c r="O18" s="15">
-        <v>56</v>
+        <v>518</v>
       </c>
       <c r="P18" s="16">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>116</v>
+        <v>583</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>1131</v>
       </c>
       <c r="R18" s="15">
-        <v>69</v>
+        <v>553</v>
       </c>
       <c r="S18" s="16">
-        <v>47</v>
-      </c>
-      <c r="T18" s="14">
-        <v>106</v>
-      </c>
-      <c r="U18" s="15">
-        <v>67</v>
-      </c>
-      <c r="V18" s="16">
-        <v>39</v>
-      </c>
-      <c r="W18" s="14">
-        <v>115</v>
-      </c>
-      <c r="X18" s="15">
-        <v>61</v>
-      </c>
-      <c r="Y18" s="16">
-        <v>54</v>
+        <v>578</v>
+      </c>
+      <c r="T18" s="24">
+        <v>1244</v>
+      </c>
+      <c r="U18" s="25">
+        <v>610</v>
+      </c>
+      <c r="V18" s="26">
+        <v>634</v>
+      </c>
+      <c r="W18" s="24">
+        <v>1208</v>
+      </c>
+      <c r="X18" s="25">
+        <v>600</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="14">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="C19" s="15">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="D19" s="16">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="E19" s="14">
-        <v>51</v>
+        <v>413</v>
       </c>
       <c r="F19" s="15">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="G19" s="16">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="H19" s="14">
-        <v>41</v>
+        <v>437</v>
       </c>
       <c r="I19" s="15">
-        <v>25</v>
+        <v>261</v>
       </c>
       <c r="J19" s="16">
-        <v>16</v>
-      </c>
-      <c r="K19" s="14">
-        <v>44</v>
+        <v>176</v>
+      </c>
+      <c r="K19" s="15">
+        <v>360</v>
       </c>
       <c r="L19" s="15">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="M19" s="16">
-        <v>22</v>
-      </c>
-      <c r="N19" s="14">
-        <v>37</v>
+        <v>139</v>
+      </c>
+      <c r="N19" s="15">
+        <v>445</v>
       </c>
       <c r="O19" s="15">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="P19" s="16">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>51</v>
+        <v>211</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>382</v>
       </c>
       <c r="R19" s="15">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="S19" s="16">
-        <v>16</v>
-      </c>
-      <c r="T19" s="14">
-        <v>44</v>
-      </c>
-      <c r="U19" s="15">
-        <v>30</v>
-      </c>
-      <c r="V19" s="16">
-        <v>14</v>
-      </c>
-      <c r="W19" s="14">
-        <v>48</v>
-      </c>
-      <c r="X19" s="15">
-        <v>30</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>18</v>
+        <v>188</v>
+      </c>
+      <c r="T19" s="24">
+        <v>425</v>
+      </c>
+      <c r="U19" s="25">
+        <v>229</v>
+      </c>
+      <c r="V19" s="26">
+        <v>196</v>
+      </c>
+      <c r="W19" s="24">
+        <v>421</v>
+      </c>
+      <c r="X19" s="25">
+        <v>217</v>
+      </c>
+      <c r="Y19" s="26">
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="14">
+        <v>13</v>
+      </c>
+      <c r="C20" s="15">
+        <v>6</v>
+      </c>
+      <c r="D20" s="16">
+        <v>7</v>
+      </c>
+      <c r="E20" s="14">
+        <v>17</v>
+      </c>
+      <c r="F20" s="15">
+        <v>5</v>
+      </c>
+      <c r="G20" s="16">
+        <v>12</v>
+      </c>
+      <c r="H20" s="14">
+        <v>29</v>
+      </c>
+      <c r="I20" s="15">
+        <v>6</v>
+      </c>
+      <c r="J20" s="16">
+        <v>23</v>
+      </c>
+      <c r="K20" s="15">
+        <v>21</v>
+      </c>
+      <c r="L20" s="15">
+        <v>11</v>
+      </c>
+      <c r="M20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="14">
+      <c r="N20" s="15">
+        <v>7</v>
+      </c>
+      <c r="O20" s="15">
+        <v>3</v>
+      </c>
+      <c r="P20" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="15">
         <v>2</v>
       </c>
-      <c r="C20" s="15">
+      <c r="R20" s="15">
         <v>1</v>
       </c>
-      <c r="D20" s="16">
+      <c r="S20" s="16">
         <v>1</v>
       </c>
-      <c r="E20" s="14">
+      <c r="T20" s="24">
+        <v>6</v>
+      </c>
+      <c r="U20" s="25">
+        <v>2</v>
+      </c>
+      <c r="V20" s="26">
+        <v>4</v>
+      </c>
+      <c r="W20" s="24">
+        <v>8</v>
+      </c>
+      <c r="X20" s="25">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="14">
+        <v>14</v>
+      </c>
+      <c r="C21" s="15">
+        <v>6</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8</v>
+      </c>
+      <c r="E21" s="14">
+        <v>12</v>
+      </c>
+      <c r="F21" s="15">
+        <v>5</v>
+      </c>
+      <c r="G21" s="16">
+        <v>7</v>
+      </c>
+      <c r="H21" s="14">
+        <v>5</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>5</v>
+      </c>
+      <c r="K21" s="15">
+        <v>17</v>
+      </c>
+      <c r="L21" s="15">
+        <v>6</v>
+      </c>
+      <c r="M21" s="16">
+        <v>11</v>
+      </c>
+      <c r="N21" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="15">
+      <c r="O21" s="15">
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>5</v>
+      </c>
+      <c r="R21" s="15">
         <v>2</v>
       </c>
-      <c r="G20" s="16">
+      <c r="S21" s="16">
+        <v>3</v>
+      </c>
+      <c r="T21" s="24">
         <v>1</v>
       </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="16">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="15">
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
-      <c r="R20" s="15">
-        <v>0</v>
-      </c>
-      <c r="S20" s="16">
-        <v>0</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="U20" s="15">
-        <v>0</v>
-      </c>
-      <c r="V20" s="16">
-        <v>0</v>
-      </c>
-      <c r="W20" s="14">
+      <c r="U21" s="25">
         <v>1</v>
       </c>
-      <c r="X20" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="14">
+      <c r="V21" s="26">
+        <v>0</v>
+      </c>
+      <c r="W21" s="24">
         <v>6</v>
       </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>5</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
+      <c r="X21" s="25">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="26">
         <v>2</v>
-      </c>
-      <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>2</v>
-      </c>
-      <c r="K21" s="14">
-        <v>2</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-      <c r="M21" s="16">
-        <v>2</v>
-      </c>
-      <c r="N21" s="14">
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>1</v>
-      </c>
-      <c r="R21" s="15">
-        <v>0</v>
-      </c>
-      <c r="S21" s="16">
-        <v>1</v>
-      </c>
-      <c r="T21" s="14">
-        <v>0</v>
-      </c>
-      <c r="U21" s="15">
-        <v>0</v>
-      </c>
-      <c r="V21" s="16">
-        <v>0</v>
-      </c>
-      <c r="W21" s="14">
-        <v>0</v>
-      </c>
-      <c r="X21" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="16">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="14">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="C22" s="15">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D22" s="16">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E22" s="14">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="F22" s="15">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="G22" s="16">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="H22" s="14">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="I22" s="15">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="J22" s="16">
-        <v>12</v>
-      </c>
-      <c r="K22" s="14">
-        <v>40</v>
+        <v>93</v>
+      </c>
+      <c r="K22" s="15">
+        <v>250</v>
       </c>
       <c r="L22" s="15">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="M22" s="16">
-        <v>12</v>
-      </c>
-      <c r="N22" s="14">
-        <v>25</v>
+        <v>94</v>
+      </c>
+      <c r="N22" s="15">
+        <v>199</v>
       </c>
       <c r="O22" s="15">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="P22" s="16">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>26</v>
+        <v>96</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>211</v>
       </c>
       <c r="R22" s="15">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="S22" s="16">
-        <v>14</v>
-      </c>
-      <c r="T22" s="14">
-        <v>11</v>
-      </c>
-      <c r="U22" s="15">
-        <v>7</v>
-      </c>
-      <c r="V22" s="16">
-        <v>4</v>
-      </c>
-      <c r="W22" s="14">
-        <v>15</v>
-      </c>
-      <c r="X22" s="15">
-        <v>5</v>
-      </c>
-      <c r="Y22" s="16">
-        <v>10</v>
+        <v>121</v>
+      </c>
+      <c r="T22" s="24">
+        <v>184</v>
+      </c>
+      <c r="U22" s="25">
+        <v>88</v>
+      </c>
+      <c r="V22" s="26">
+        <v>96</v>
+      </c>
+      <c r="W22" s="24">
+        <v>212</v>
+      </c>
+      <c r="X22" s="25">
+        <v>92</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C23" s="15">
         <v>0</v>
       </c>
       <c r="D23" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="15">
         <v>0</v>
       </c>
       <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="14">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K23" s="15">
+        <v>4</v>
       </c>
       <c r="L23" s="15">
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <v>0</v>
-      </c>
-      <c r="N23" s="14">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N23" s="15">
+        <v>6</v>
       </c>
       <c r="O23" s="15">
         <v>0</v>
       </c>
       <c r="P23" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>5</v>
       </c>
       <c r="R23" s="15">
         <v>0</v>
       </c>
       <c r="S23" s="16">
-        <v>0</v>
-      </c>
-      <c r="T23" s="14">
-        <v>0</v>
-      </c>
-      <c r="U23" s="15">
-        <v>0</v>
-      </c>
-      <c r="V23" s="16">
-        <v>0</v>
-      </c>
-      <c r="W23" s="14">
-        <v>1</v>
-      </c>
-      <c r="X23" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="16">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="T23" s="24">
+        <v>4</v>
+      </c>
+      <c r="U23" s="25">
+        <v>0</v>
+      </c>
+      <c r="V23" s="26">
+        <v>4</v>
+      </c>
+      <c r="W23" s="24">
+        <v>8</v>
+      </c>
+      <c r="X23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="14">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C24" s="15">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D24" s="16">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E24" s="14">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F24" s="15">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G24" s="16">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="H24" s="14">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="I24" s="15">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J24" s="16">
-        <v>3</v>
-      </c>
-      <c r="K24" s="14">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="K24" s="15">
+        <v>83</v>
       </c>
       <c r="L24" s="15">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="M24" s="16">
-        <v>4</v>
-      </c>
-      <c r="N24" s="14">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="N24" s="15">
+        <v>77</v>
       </c>
       <c r="O24" s="15">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="P24" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>59</v>
       </c>
       <c r="R24" s="15">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="S24" s="16">
-        <v>5</v>
-      </c>
-      <c r="T24" s="14">
-        <v>7</v>
-      </c>
-      <c r="U24" s="15">
-        <v>2</v>
-      </c>
-      <c r="V24" s="16">
-        <v>5</v>
-      </c>
-      <c r="W24" s="14">
-        <v>4</v>
-      </c>
-      <c r="X24" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="16">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="T24" s="24">
+        <v>94</v>
+      </c>
+      <c r="U24" s="25">
+        <v>49</v>
+      </c>
+      <c r="V24" s="26">
+        <v>45</v>
+      </c>
+      <c r="W24" s="24">
+        <v>80</v>
+      </c>
+      <c r="X24" s="25">
+        <v>46</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="14">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C25" s="15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D25" s="16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E25" s="14">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F25" s="15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G25" s="16">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H25" s="14">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I25" s="15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J25" s="16">
-        <v>0</v>
-      </c>
-      <c r="K25" s="14">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="K25" s="15">
+        <v>41</v>
       </c>
       <c r="L25" s="15">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M25" s="16">
-        <v>4</v>
-      </c>
-      <c r="N25" s="14">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N25" s="15">
+        <v>36</v>
       </c>
       <c r="O25" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P25" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>28</v>
       </c>
       <c r="R25" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S25" s="16">
-        <v>1</v>
-      </c>
-      <c r="T25" s="14">
-        <v>3</v>
-      </c>
-      <c r="U25" s="15">
-        <v>2</v>
-      </c>
-      <c r="V25" s="16">
-        <v>1</v>
-      </c>
-      <c r="W25" s="14">
-        <v>3</v>
-      </c>
-      <c r="X25" s="15">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="16">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="T25" s="24">
+        <v>22</v>
+      </c>
+      <c r="U25" s="25">
+        <v>9</v>
+      </c>
+      <c r="V25" s="26">
+        <v>13</v>
+      </c>
+      <c r="W25" s="24">
+        <v>32</v>
+      </c>
+      <c r="X25" s="25">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="14">
-        <v>116</v>
+        <v>6244</v>
       </c>
       <c r="C26" s="15">
-        <v>61</v>
+        <v>2805</v>
       </c>
       <c r="D26" s="16">
-        <v>55</v>
+        <v>3439</v>
       </c>
       <c r="E26" s="14">
-        <v>318</v>
+        <v>5277</v>
       </c>
       <c r="F26" s="15">
-        <v>191</v>
+        <v>2591</v>
       </c>
       <c r="G26" s="16">
-        <v>127</v>
+        <v>2686</v>
       </c>
       <c r="H26" s="14">
-        <v>422</v>
+        <v>5669</v>
       </c>
       <c r="I26" s="15">
-        <v>230</v>
+        <v>2681</v>
       </c>
       <c r="J26" s="16">
-        <v>192</v>
-      </c>
-      <c r="K26" s="14">
-        <v>188</v>
+        <v>2988</v>
+      </c>
+      <c r="K26" s="15">
+        <v>4463</v>
       </c>
       <c r="L26" s="15">
-        <v>100</v>
+        <v>2001</v>
       </c>
       <c r="M26" s="16">
-        <v>88</v>
-      </c>
-      <c r="N26" s="14">
-        <v>59</v>
+        <v>2462</v>
+      </c>
+      <c r="N26" s="15">
+        <v>4274</v>
       </c>
       <c r="O26" s="15">
-        <v>37</v>
+        <v>1965</v>
       </c>
       <c r="P26" s="16">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>73</v>
+        <v>2309</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>3654</v>
       </c>
       <c r="R26" s="15">
-        <v>46</v>
+        <v>1630</v>
       </c>
       <c r="S26" s="16">
-        <v>27</v>
-      </c>
-      <c r="T26" s="14">
-        <v>65</v>
-      </c>
-      <c r="U26" s="15">
-        <v>34</v>
-      </c>
-      <c r="V26" s="16">
-        <v>31</v>
-      </c>
-      <c r="W26" s="14">
-        <v>75</v>
-      </c>
-      <c r="X26" s="15">
-        <v>44</v>
-      </c>
-      <c r="Y26" s="16">
-        <v>31</v>
+        <v>2024</v>
+      </c>
+      <c r="T26" s="24">
+        <v>4300</v>
+      </c>
+      <c r="U26" s="25">
+        <v>1940</v>
+      </c>
+      <c r="V26" s="26">
+        <v>2360</v>
+      </c>
+      <c r="W26" s="24">
+        <v>5405</v>
+      </c>
+      <c r="X26" s="25">
+        <v>2471</v>
+      </c>
+      <c r="Y26" s="26">
+        <v>2934</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="14">
-        <v>66</v>
+        <v>548</v>
       </c>
       <c r="C27" s="15">
-        <v>57</v>
+        <v>361</v>
       </c>
       <c r="D27" s="16">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="E27" s="14">
-        <v>60</v>
+        <v>382</v>
       </c>
       <c r="F27" s="15">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="G27" s="16">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H27" s="14">
-        <v>65</v>
+        <v>363</v>
       </c>
       <c r="I27" s="15">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="J27" s="16">
-        <v>10</v>
-      </c>
-      <c r="K27" s="14">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="K27" s="15">
+        <v>415</v>
       </c>
       <c r="L27" s="15">
-        <v>57</v>
+        <v>292</v>
       </c>
       <c r="M27" s="16">
-        <v>14</v>
-      </c>
-      <c r="N27" s="14">
-        <v>82</v>
+        <v>123</v>
+      </c>
+      <c r="N27" s="15">
+        <v>492</v>
       </c>
       <c r="O27" s="15">
-        <v>65</v>
+        <v>341</v>
       </c>
       <c r="P27" s="16">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>79</v>
+        <v>151</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>598</v>
       </c>
       <c r="R27" s="15">
-        <v>64</v>
+        <v>380</v>
       </c>
       <c r="S27" s="16">
-        <v>15</v>
-      </c>
-      <c r="T27" s="14">
-        <v>76</v>
-      </c>
-      <c r="U27" s="15">
-        <v>54</v>
-      </c>
-      <c r="V27" s="16">
-        <v>22</v>
-      </c>
-      <c r="W27" s="14">
-        <v>84</v>
-      </c>
-      <c r="X27" s="15">
-        <v>63</v>
-      </c>
-      <c r="Y27" s="16">
-        <v>21</v>
+        <v>218</v>
+      </c>
+      <c r="T27" s="24">
+        <v>602</v>
+      </c>
+      <c r="U27" s="25">
+        <v>391</v>
+      </c>
+      <c r="V27" s="26">
+        <v>211</v>
+      </c>
+      <c r="W27" s="24">
+        <v>514</v>
+      </c>
+      <c r="X27" s="25">
+        <v>328</v>
+      </c>
+      <c r="Y27" s="26">
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2497,32 +2522,32 @@
       <c r="H28" s="17"/>
       <c r="I28" s="18"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="19"/>
-      <c r="N28" s="17"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="19"/>
-      <c r="Q28" s="17"/>
+      <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
       <c r="S28" s="19"/>
-      <c r="T28" s="17">
-        <v>49</v>
-      </c>
-      <c r="U28" s="18">
-        <v>29</v>
-      </c>
-      <c r="V28" s="19">
-        <v>20</v>
-      </c>
-      <c r="W28" s="17">
-        <v>303</v>
-      </c>
-      <c r="X28" s="18">
-        <v>147</v>
-      </c>
-      <c r="Y28" s="19">
-        <v>156</v>
+      <c r="T28" s="27">
+        <v>783</v>
+      </c>
+      <c r="U28" s="28">
+        <v>441</v>
+      </c>
+      <c r="V28" s="29">
+        <v>342</v>
+      </c>
+      <c r="W28" s="27">
+        <v>3999</v>
+      </c>
+      <c r="X28" s="28">
+        <v>1783</v>
+      </c>
+      <c r="Y28" s="29">
+        <v>2216</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,7 +2557,7 @@
     </row>
     <row r="31" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
